--- a/biology/Zoologie/Archiearinae/Archiearinae.xlsx
+++ b/biology/Zoologie/Archiearinae/Archiearinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Archiearinae sont une sous-famille de lépidoptères (papillons) de la famille des Geometridae.
-Le nom « Archiearinae » a remplacé « Brephinae » car il était fondé sur le genre Brephos Ochsenheimer, 1816 qui était préoccupé par Brephos Hübner, 1813[1],[2].
+Le nom « Archiearinae » a remplacé « Brephinae » car il était fondé sur le genre Brephos Ochsenheimer, 1816 qui était préoccupé par Brephos Hübner, 1813,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Niels P. Kristensen[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Niels P. Kristensen
 genre Archiearis Hübner, 1823
 genre Leucobrephos Grote, 1874
 genre Archiearides Fletcher, 1953
@@ -548,7 +562,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>du genre Archiearis :
 Archiearis parthenias L., 1761 - l'Intruse
